--- a/系统/财政厅/财政厅需求修改工时评估.xlsx
+++ b/系统/财政厅/财政厅需求修改工时评估.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/work/同步文件/办公室同步/系统/财政厅/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="18560" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="开发时间进度表" sheetId="3" r:id="rId1"/>
@@ -12,7 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发时间进度表!$A$1:$G$44</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -145,18 +158,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -165,7 +178,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -173,7 +186,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -181,7 +194,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -189,14 +202,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -232,42 +245,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,12 +433,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -452,14 +465,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -486,6 +500,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,23 +676,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="51.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="15" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="26" customWidth="1"/>
-    <col min="7" max="7" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -700,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="56.25" customHeight="1">
+    <row r="2" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="29" t="s">
         <v>7</v>
@@ -721,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -740,7 +755,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="48.75" customHeight="1">
+    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -759,7 +774,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -778,7 +793,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -797,7 +812,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -816,7 +831,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="45.75" customHeight="1">
+    <row r="8" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -835,7 +850,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -854,7 +869,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
         <v>15</v>
@@ -873,7 +888,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -892,7 +907,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>17</v>
@@ -913,7 +928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
         <v>18</v>
@@ -932,7 +947,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
         <v>19</v>
@@ -953,7 +968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -972,7 +987,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
         <v>22</v>
@@ -991,7 +1006,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
         <v>23</v>
@@ -1010,7 +1025,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="8" t="s">
         <v>25</v>
@@ -1029,7 +1044,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="19" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="15"/>
@@ -1043,7 +1058,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
@@ -1060,7 +1075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="12"/>
       <c r="C21" s="16"/>
@@ -1069,7 +1084,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="15"/>
@@ -1078,7 +1093,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="15"/>
@@ -1087,7 +1102,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="12"/>
       <c r="C24" s="16"/>
@@ -1096,7 +1111,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="17"/>
@@ -1105,7 +1120,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="17"/>
@@ -1114,7 +1129,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="27" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="15"/>
@@ -1123,7 +1138,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="28" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="15"/>
@@ -1132,7 +1147,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="29" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="15"/>
@@ -1141,7 +1156,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="15"/>
@@ -1150,7 +1165,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="31" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="15"/>
@@ -1159,7 +1174,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="15"/>
@@ -1168,7 +1183,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="5"/>
       <c r="C33" s="15"/>
@@ -1177,7 +1192,7 @@
       <c r="F33" s="21"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="34" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="5"/>
       <c r="C34" s="15"/>
@@ -1186,7 +1201,7 @@
       <c r="F34" s="20"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="35" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
       <c r="C35" s="15"/>
@@ -1195,7 +1210,7 @@
       <c r="F35" s="20"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="36" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="10"/>
       <c r="C36" s="18"/>
@@ -1204,7 +1219,7 @@
       <c r="F36" s="23"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
       <c r="C37" s="15"/>
@@ -1213,7 +1228,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="5"/>
       <c r="C38" s="15"/>
@@ -1222,7 +1237,7 @@
       <c r="F38" s="20"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="39" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="15"/>
@@ -1231,7 +1246,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="40" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="15"/>
@@ -1240,7 +1255,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="41" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="5"/>
       <c r="C41" s="15"/>
@@ -1249,7 +1264,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="42" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="6"/>
       <c r="C42" s="19"/>
@@ -1258,7 +1273,7 @@
       <c r="F42" s="24"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="43" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="6"/>
       <c r="C43" s="19"/>
@@ -1267,7 +1282,7 @@
       <c r="F43" s="24"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="39.950000000000003" customHeight="1">
+    <row r="44" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="6"/>
       <c r="C44" s="19"/>

--- a/系统/财政厅/财政厅需求修改工时评估.xlsx
+++ b/系统/财政厅/财政厅需求修改工时评估.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/work/同步文件/办公室同步/系统/财政厅/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25680" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="开发时间进度表" sheetId="3" r:id="rId1"/>
@@ -12,12 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发时间进度表!$A$1:$G$43</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>需求
 编号</t>
@@ -119,6 +132,7 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF000000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(Log登录页面图片,首页顶部图片需要修改)</t>
@@ -149,14 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,171 +208,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,194 +233,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -619,252 +283,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -888,7 +310,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -901,7 +323,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,7 +339,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -958,58 +380,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1298,28 +673,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.95" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="51.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="56.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>7</v>
@@ -1363,7 +738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="12" t="s">
         <v>10</v>
@@ -1382,7 +757,7 @@
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" ht="48.75" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="12" t="s">
         <v>11</v>
@@ -1401,7 +776,7 @@
       </c>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="12" t="s">
         <v>12</v>
@@ -1420,7 +795,7 @@
       </c>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -1439,7 +814,7 @@
       </c>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="12" t="s">
         <v>14</v>
@@ -1458,7 +833,7 @@
       </c>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" ht="56.25" spans="1:7">
+    <row r="8" spans="1:7" ht="65" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="12" t="s">
         <v>15</v>
@@ -1477,7 +852,7 @@
       </c>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" ht="56.25" spans="1:7">
+    <row r="9" spans="1:7" ht="65" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="12" t="s">
         <v>16</v>
@@ -1496,7 +871,7 @@
       </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="12" t="s">
         <v>17</v>
@@ -1515,7 +890,7 @@
       </c>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="12" t="s">
         <v>18</v>
@@ -1534,7 +909,7 @@
       </c>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="56.25" spans="1:7">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="52" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
         <v>19</v>
@@ -1553,7 +928,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
@@ -1572,7 +947,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="23" t="s">
         <v>21</v>
@@ -1593,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="45" spans="1:7">
+    <row r="15" spans="1:7" ht="52" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="12" t="s">
         <v>22</v>
@@ -1612,7 +987,7 @@
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="12" t="s">
         <v>23</v>
@@ -1631,7 +1006,7 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="12" t="s">
         <v>24</v>
@@ -1650,7 +1025,7 @@
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="24" t="s">
         <v>25</v>
@@ -1669,7 +1044,7 @@
       </c>
       <c r="G18" s="26"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="23" t="s">
         <v>26</v>
@@ -1686,7 +1061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="18" t="s">
         <v>27</v>
@@ -1705,7 +1080,7 @@
       </c>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" ht="33.75" spans="1:7">
+    <row r="21" spans="1:7" ht="39" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="18" t="s">
         <v>29</v>
@@ -1724,7 +1099,7 @@
       </c>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="18" t="s">
         <v>30</v>
@@ -1743,7 +1118,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" ht="45" spans="1:7">
+    <row r="23" spans="1:7" ht="52" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="18" t="s">
         <v>31</v>
@@ -1762,7 +1137,7 @@
       </c>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="18" t="s">
         <v>32</v>
@@ -1781,7 +1156,7 @@
       </c>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="18" t="s">
         <v>33</v>
@@ -1800,7 +1175,7 @@
       </c>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
@@ -1809,12 +1184,12 @@
         <v>34</v>
       </c>
       <c r="F26" s="5">
-        <f>SUM(F2:F18)</f>
-        <v>69</v>
+        <f>SUM(F2:F25)</f>
+        <v>175</v>
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
@@ -1823,7 +1198,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -1832,7 +1207,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
@@ -1841,7 +1216,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
@@ -1850,7 +1225,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -1859,7 +1234,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -1868,7 +1243,7 @@
       <c r="F32" s="15"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
@@ -1877,7 +1252,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" customHeight="1" spans="1:7">
+    <row r="34" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
@@ -1886,7 +1261,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" customHeight="1" spans="1:7">
+    <row r="35" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
@@ -1895,7 +1270,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="33"/>
     </row>
-    <row r="36" customHeight="1" spans="1:7">
+    <row r="36" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
@@ -1904,7 +1279,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" customHeight="1" spans="1:7">
+    <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
@@ -1913,7 +1288,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" customHeight="1" spans="1:7">
+    <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="24"/>
       <c r="C38" s="13"/>
@@ -1922,7 +1297,7 @@
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
     </row>
-    <row r="39" customHeight="1" spans="1:7">
+    <row r="39" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="24"/>
       <c r="C39" s="13"/>
@@ -1931,7 +1306,7 @@
       <c r="F39" s="25"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" customHeight="1" spans="1:7">
+    <row r="40" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -1940,7 +1315,7 @@
       <c r="F40" s="15"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" customHeight="1" spans="1:7">
+    <row r="41" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="23"/>
       <c r="C41" s="8"/>
@@ -1949,7 +1324,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" customHeight="1" spans="1:7">
+    <row r="42" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="23"/>
       <c r="C42" s="8"/>
@@ -1958,7 +1333,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" customHeight="1" spans="1:7">
+    <row r="43" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="23"/>
       <c r="C43" s="8"/>
@@ -1969,8 +1344,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G43"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>